--- a/6运动控制系统/exprData.xlsx
+++ b/6运动控制系统/exprData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21720" windowHeight="11340" activeTab="4"/>
+    <workbookView windowWidth="14400" windowHeight="11720" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="实验一1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="实验一3" sheetId="5" r:id="rId3"/>
     <sheet name="实验二1" sheetId="3" r:id="rId4"/>
     <sheet name="实验二2" sheetId="4" r:id="rId5"/>
+    <sheet name="开环外特性" sheetId="6" r:id="rId6"/>
+    <sheet name="系统静特性" sheetId="7" r:id="rId7"/>
+    <sheet name="闭环控制特性" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>id/A</t>
   </si>
@@ -40,18 +43,45 @@
   <si>
     <t>Ug/V</t>
   </si>
+  <si>
+    <t>I(A)</t>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(V)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,6 +90,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -68,6 +135,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -75,7 +165,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,22 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -113,94 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -219,186 +264,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -407,11 +452,54 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -420,7 +508,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,6 +524,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,6 +564,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -481,26 +593,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -509,154 +606,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -980,7 +1089,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+      <selection activeCell="B1" sqref="B1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1084,7 +1193,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+      <selection activeCell="B1" sqref="B1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1178,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+    <sheetView zoomScale="135" zoomScaleNormal="135" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1342,8 +1451,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1404,4 +1513,193 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="18.35" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1510</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1488</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1470</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1443</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1423</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="2" ht="18.35" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="18.35" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1488</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1465</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1452</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1421</v>
+      </c>
+      <c r="G1" s="2">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="2" ht="18.35" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" ht="18.35" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2">
+        <v>540</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1035</v>
+      </c>
+      <c r="D1" s="2">
+        <v>1311</v>
+      </c>
+      <c r="E1" s="2">
+        <v>1446</v>
+      </c>
+      <c r="F1" s="2">
+        <v>1546</v>
+      </c>
+      <c r="G1" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" ht="19.75" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>